--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>New Price</t>
   </si>
@@ -21,39 +21,6 @@
   </si>
   <si>
     <t>Discount</t>
-  </si>
-  <si>
-    <t>$28.98</t>
-  </si>
-  <si>
-    <t>$30.51</t>
-  </si>
-  <si>
-    <t>-5%</t>
-  </si>
-  <si>
-    <t>$50.99</t>
-  </si>
-  <si>
-    <t>$30.50</t>
-  </si>
-  <si>
-    <t>$16.40</t>
-  </si>
-  <si>
-    <t>$20.50</t>
-  </si>
-  <si>
-    <t>-20%</t>
-  </si>
-  <si>
-    <t>$26.00</t>
-  </si>
-  <si>
-    <t>$16.51</t>
-  </si>
-  <si>
-    <t>$27.00</t>
   </si>
 </sst>
 </file>
@@ -105,7 +72,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -122,53 +89,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>New Price</t>
   </si>
@@ -21,6 +21,39 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>$28.98</t>
+  </si>
+  <si>
+    <t>$30.51</t>
+  </si>
+  <si>
+    <t>-5%</t>
+  </si>
+  <si>
+    <t>$50.99</t>
+  </si>
+  <si>
+    <t>$30.50</t>
+  </si>
+  <si>
+    <t>$16.40</t>
+  </si>
+  <si>
+    <t>$20.50</t>
+  </si>
+  <si>
+    <t>-20%</t>
+  </si>
+  <si>
+    <t>$26.00</t>
+  </si>
+  <si>
+    <t>$16.51</t>
+  </si>
+  <si>
+    <t>$27.00</t>
   </si>
 </sst>
 </file>
@@ -72,7 +105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -89,6 +122,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
